--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value544.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value544.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8745230917362504</v>
+        <v>1.39993417263031</v>
       </c>
       <c r="B1">
-        <v>0.8990952085820584</v>
+        <v>1.761411309242249</v>
       </c>
       <c r="C1">
-        <v>0.9844915705875701</v>
+        <v>1.955539464950562</v>
       </c>
       <c r="D1">
-        <v>1.449215565379468</v>
+        <v>2.24391508102417</v>
       </c>
       <c r="E1">
-        <v>2.978026710141467</v>
+        <v>2.740868806838989</v>
       </c>
     </row>
   </sheetData>
